--- a/medicine/Enfance/William_Steig/William_Steig.xlsx
+++ b/medicine/Enfance/William_Steig/William_Steig.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William Steig, né le 14 novembre 1907 à New York, mort le 3 octobre 2003 à Boston, est un prolifique auteur américain, de bande dessinée, puis de littérature d'enfance et de jeunesse. Il est le père du flûtiste de jazz Jeremy Steig.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa carrière commence en vendant ses premiers dessins au New Yorker en 1930.
 Il est notamment l'auteur de Shrek ! (1990), un livre d'aventures illustré relatant les aventures d'un ogre vert. Ce personnage inspira Shrek, film en images de synthèse. Les auteurs de Shrek 2 et Shrek le troisième lui rendirent hommage en incorporant « In memory of William Steig » dans les génériques des films.
-En 1970, il est lauréat de la Médaille Caldecott pour Sylvester and the Magic Pebble (traduit en français sous le titre Sylvester et le caillou magique). En 1983, il remporte le National Book Award[1], catégorie Children's Picture Books, pour Doctor De Soto (traduit en français sous le titre La Surprenante histoire du docteur De Soto). En 2006, de façon posthume, il remporte la « Mention » Prix Fiction de la Foire internationale du livre jeunesse de Bologne[2] pour When everybody wore a hat.
+En 1970, il est lauréat de la Médaille Caldecott pour Sylvester and the Magic Pebble (traduit en français sous le titre Sylvester et le caillou magique). En 1983, il remporte le National Book Award, catégorie Children's Picture Books, pour Doctor De Soto (traduit en français sous le titre La Surprenante histoire du docteur De Soto). En 2006, de façon posthume, il remporte la « Mention » Prix Fiction de la Foire internationale du livre jeunesse de Bologne pour When everybody wore a hat.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 1932 : Man About Town (New York: R. Long &amp; R.R. Smith).
@@ -565,13 +581,49 @@
 1951 : The Rejected Lovers (Knopf).
 1953 : Dreams of Glory and other drawings (Knopf).
 1963 : Continuous Performance (Duell S&amp;P).
-Livres illustrés
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>William_Steig</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/William_Steig</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Livres illustrés</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1968 :
 CDB! (Windmill), livres illustrés.
 Roland, the Minstrel Pig (Windmill), traduit en français sous le titre Roland, le cochon ménestrel en 1980 (L'École des Loisirs).
 1969 :
 Sylvester and the Magic Pebble (Windmill), traduit en français sous le titre Sylvester et le caillou magique en 1974 (Flammarion)
-The Bad Island (Windmill), réédité en 1984 sous le titre Rotten Island (D. R. Godine)[3].
+The Bad Island (Windmill), réédité en 1984 sous le titre Rotten Island (D. R. Godine).
 1971 : Amos and Boris.
 1972 : Dominic, traduit en français en 1982 (Livre de Poche) et en 2003 (L'École des Loisirs).
 1973 : The Real Thief.
@@ -583,7 +635,7 @@
 1978 : Tiffky Doofky.
 1979 : Drawings.
 1980 : Gorky Rises.
-1982 : Doctor De Soto, un livre illustré récompensé par le National Book Award[1], traduit en français sous le titre La Surprenante histoire du docteur De Soto en 1992 (Gallimard Jeunesse).
+1982 : Doctor De Soto, un livre illustré récompensé par le National Book Award, traduit en français sous le titre La Surprenante histoire du docteur De Soto en 1992 (Gallimard Jeunesse).
 1984 :
 CDC? (Farrar, Straus &amp; Giroux).
 Doctor De Soto Goes to Africa, traduit en français sous le titre Le Docteur De Soto en Afrique en 1992 (Gallimard Jeunesse).
@@ -610,31 +662,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>William_Steig</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/William_Steig</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Adaptations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>2001 : Shrek
 2004 : Shrek 2
@@ -644,31 +698,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>William_Steig</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/William_Steig</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>1970 :  Médaille Caldecott pour Sylvester and the Magic Pebble (traduit en français sous le titre Sylvester et le caillou magique)
 1977 :
@@ -676,13 +732,13 @@
  Finaliste de la Médaille Newbery pour Abel's Island (traduit en français sous le titre L'île d'Abel)
 1979 :  Zilveren Griffel (nl)  pour Abel's Island
 1983 :
- National Book Award[1], catégorie Children's Picture Books pour Doctor De Soto (traduit en français sous le titre La Surprenante histoire du docteur De Soto)
+ National Book Award, catégorie Children's Picture Books pour Doctor De Soto (traduit en français sous le titre La Surprenante histoire du docteur De Soto)
  Finaliste de la Médaille Newbery pour Doctor De Soto (La Surprenante histoire du docteur De Soto)
 1984 :
  Zilveren Penseel (nl)  pour Doctor De Soto (La Surprenante histoire du docteur De Soto)
-(international) « Honour List »[4] de l' IBBY pour Doctor De Soto (La Surprenante histoire du docteur De Soto)
+(international) « Honour List » de l' IBBY pour Doctor De Soto (La Surprenante histoire du docteur De Soto)
 1991 :  Zilveren Penseel (nl)  pour Shrek !
-2006 :  "Mention" Prix Fiction de la Foire internationale du livre jeunesse de Bologne[2] pour When everybody wore a hat.</t>
+2006 :  "Mention" Prix Fiction de la Foire internationale du livre jeunesse de Bologne pour When everybody wore a hat.</t>
         </is>
       </c>
     </row>
